--- a/test/Output.xlsx
+++ b/test/Output.xlsx
@@ -388,13 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2" t="n">
-        <v>44</v>
+        <v>228</v>
       </c>
       <c r="D2" t="n">
-        <v>27</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
@@ -402,13 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C3" t="n">
-        <v>45</v>
+        <v>116</v>
       </c>
       <c r="D3" t="n">
-        <v>22</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -416,13 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="D4" t="n">
-        <v>21</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5">
@@ -433,10 +433,10 @@
         <v>32</v>
       </c>
       <c r="C5" t="n">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="D5" t="n">
-        <v>23</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6">
@@ -444,13 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>65</v>
       </c>
       <c r="C6" t="n">
-        <v>47</v>
+        <v>201</v>
       </c>
       <c r="D6" t="n">
-        <v>21</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
@@ -458,13 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C7" t="n">
-        <v>46</v>
+        <v>143</v>
       </c>
       <c r="D7" t="n">
-        <v>17</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
@@ -472,13 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>22</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="D8" t="n">
-        <v>21</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -486,13 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C9" t="n">
-        <v>48</v>
+        <v>93</v>
       </c>
       <c r="D9" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10">
@@ -500,13 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="D10" t="n">
-        <v>25</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11">
@@ -514,13 +514,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C11" t="n">
-        <v>45</v>
+        <v>132</v>
       </c>
       <c r="D11" t="n">
-        <v>19</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12">
